--- a/travail.xlsx
+++ b/travail.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Formules Test" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>assertEquals(0, Utils.calculXsearch(1))</t>
   </si>
@@ -270,6 +271,84 @@
   </si>
   <si>
     <t>assertEquals(9, Utils.calculYsearch(81));</t>
+  </si>
+  <si>
+    <t>Controleur</t>
+  </si>
+  <si>
+    <t>Vue</t>
+  </si>
+  <si>
+    <t>MaFenetre</t>
+  </si>
+  <si>
+    <t>MonPanneauGrille</t>
+  </si>
+  <si>
+    <t>MonPanneauCommande</t>
+  </si>
+  <si>
+    <t>MaCase</t>
+  </si>
+  <si>
+    <t>Modele</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Candidats</t>
+  </si>
+  <si>
+    <t>Clic sur suivant</t>
+  </si>
+  <si>
+    <t>Va rechercher dans l'ordre des méthodes</t>
+  </si>
+  <si>
+    <t>Se positionne sur le premier changement trouvé.</t>
+  </si>
+  <si>
+    <t>Clic sur ?</t>
+  </si>
+  <si>
+    <t>Fait le changement</t>
+  </si>
+  <si>
+    <t>Ecrit la log</t>
+  </si>
+  <si>
+    <t>Incrémente le compteur</t>
+  </si>
+  <si>
+    <t>Grille</t>
+  </si>
+  <si>
+    <t>MethodeResolution</t>
+  </si>
+  <si>
+    <t>5'30</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>6'20 / km</t>
+  </si>
+  <si>
+    <t>km/s</t>
   </si>
 </sst>
 </file>
@@ -293,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -301,12 +380,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,9 +684,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <f>5*60+30</f>
+        <v>330</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23">
+        <f>J20/J21</f>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24">
+        <f>J23*3600/1000</f>
+        <v>10.909090909090908</v>
+      </c>
+      <c r="K24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30">
+        <f>6*60+20</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31">
+        <f>1/J30</f>
+        <v>2.631578947368421E-3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f>J31*3600</f>
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="E9:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G84" sqref="G4:G84"/>
     </sheetView>
   </sheetViews>
